--- a/example_data/EMA/label_corrected/competact-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/competact-epar-product-information_en.xlsx
@@ -997,7 +997,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>renal || populations - geriatric</t>
+          <t>populations - geriatric || renal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>renal || hepatic || contraindication</t>
+          <t>hepatic || contraindication || renal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>renal || populations - geriatric || warnings</t>
+          <t>populations - geriatric || renal || warnings</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
